--- a/tools/excel/microsoft/mcsb-v1.xlsx
+++ b/tools/excel/microsoft/mcsb-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/excel/microsoft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C322B6A-7933-6F49-B7E4-82383F52DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1FDF9-D5C0-AB45-B7FA-203A5FE52BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="-28060" windowWidth="50880" windowHeight="27880" xr2:uid="{C1B9C957-850F-8443-8E06-CB4E729FFF6E}"/>
   </bookViews>
@@ -2271,7 +2271,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="263" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2309,7 +2309,9 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>45019</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
